--- a/XXX-Lista_dokumentów.xlsx
+++ b/XXX-Lista_dokumentów.xlsx
@@ -19,14 +19,34 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Nr KZ</t>
+  </si>
+  <si>
+    <t>Nr_dokumentu.rewizja-Nazwa_dokumentu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,8 +70,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -368,14 +400,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/XXX-Lista_dokumentów.xlsx
+++ b/XXX-Lista_dokumentów.xlsx
@@ -407,13 +407,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="2" max="2" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
